--- a/singles/difference/portal.xlsx
+++ b/singles/difference/portal.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4185" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jan" sheetId="1" r:id="rId1"/>
-    <sheet name="dif" sheetId="2" r:id="rId2"/>
-    <sheet name="dif_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId2"/>
+    <sheet name="not_in_base" sheetId="2" r:id="rId3"/>
+    <sheet name="not_in_portal" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="405">
   <si>
     <t>INVOICE</t>
   </si>
@@ -1175,6 +1176,9 @@
     <t>"0910180"</t>
   </si>
   <si>
+    <t>НЕТ НА ПОРТАЛЕ</t>
+  </si>
+  <si>
     <t>АНИТЭКС</t>
   </si>
   <si>
@@ -1227,6 +1231,12 @@
   </si>
   <si>
     <t>СЕВКОВИЧ АЛЕКСАНДР ИОСИФОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕТ В БАЗЕ</t>
+  </si>
+  <si>
+    <t>две за одну</t>
   </si>
 </sst>
 </file>
@@ -1243,12 +1253,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1263,9 +1285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1572,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS88"/>
   <sheetViews>
-    <sheetView topLeftCell="AE11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10984,7 +11009,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B16"/>
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3">
+        <v>288.99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4">
+        <v>40.6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="2">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5">
+        <v>6.4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="2">
+        <v>591.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>128.94999999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>57.93</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8">
+        <v>94.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3">
+        <v>295.33999999999997</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1855.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="3">
+        <v>335.5</v>
+      </c>
+      <c r="G12">
+        <v>40.159999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3">
+        <v>376</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>4074.12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14">
+        <v>2544.3200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15">
+        <v>2524.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2180.9499999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16">
+        <v>3665.26</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="3">
+        <v>431.8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18">
+        <v>11651.45</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="3">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -10993,118 +11270,176 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>288.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="4">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="4">
+        <v>591.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4">
+        <v>128.94999999999999</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="4">
+        <v>57.93</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="4">
+        <v>94.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40.159999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="4">
+        <v>270</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>128.94999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8">
-        <v>57.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>295.33999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>374</v>
-      </c>
       <c r="B12">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>4074.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15">
-        <v>1164.4000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>150</v>
-      </c>
+        <v>408.86</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2180.9499999999998</v>
+        <f>SUM(B3:B15)</f>
+        <v>1262.18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <f>SUM(F3:F16)</f>
+        <v>934.65999999999985</v>
       </c>
     </row>
   </sheetData>
@@ -11112,164 +11447,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B20"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3">
-        <v>21.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5">
-        <v>591.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B6">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7">
-        <v>23.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8">
-        <v>94.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B9">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10">
-        <v>1855.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12">
-        <v>335.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B13">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B14">
-        <v>2544.3200000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>396</v>
-      </c>
-      <c r="B15">
-        <v>2524.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B16">
-        <v>3665.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B17">
-        <v>431.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B18">
-        <v>11651.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B20">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/singles/difference/portal.xlsx
+++ b/singles/difference/portal.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="407">
   <si>
     <t>INVOICE</t>
   </si>
@@ -1237,14 +1237,29 @@
   </si>
   <si>
     <t>две за одну</t>
+  </si>
+  <si>
+    <t>НА СУММУ</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1273,7 +1288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1281,16 +1296,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -11261,189 +11393,202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>288.99</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="4">
+      <c r="D3" s="7">
         <v>21.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>40.6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="4">
+      <c r="D4" s="6">
         <v>94.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>6.4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="4">
+      <c r="D5" s="6">
         <v>591.73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="F6" s="4">
+      <c r="D6" s="6">
         <v>5.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>128.94999999999999</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="4">
+      <c r="D7" s="6">
         <v>23.56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>57.93</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="4">
+      <c r="D8" s="6">
         <v>94.34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="4">
+      <c r="D9" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F10" s="4">
+      <c r="D10" s="6">
         <v>40.159999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>270</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F11" s="4">
+      <c r="D11" s="6">
         <v>8.93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>408.86</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.64</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>SUM(B3:B15)</f>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="10">
+        <f>SUM(B3:B13)</f>
         <v>1262.18</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="4">
-        <f>SUM(F3:F16)</f>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
+        <f>SUM(D3:D13)</f>
         <v>934.65999999999985</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
